--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE4F0A-0BD0-4F5D-84BB-7C6797BDE342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="Tag Taxonomy" sheetId="2" r:id="rId2"/>
     <sheet name="STG" sheetId="3" r:id="rId3"/>
+    <sheet name="PRO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A31:E45"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="209">
   <si>
     <t>homepageURL</t>
   </si>
@@ -58,9 +59,6 @@
     <t>resellerDemoPage</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/reseller-demo.html</t>
-  </si>
-  <si>
     <t>legalPage</t>
   </si>
   <si>
@@ -193,9 +191,6 @@
     <t>Change Navigator</t>
   </si>
   <si>
-    <t>Costumer Link</t>
-  </si>
-  <si>
     <t>Digital on Demand</t>
   </si>
   <si>
@@ -232,9 +227,6 @@
     <t>Listen Platform</t>
   </si>
   <si>
-    <t>Master Data Management</t>
-  </si>
-  <si>
     <t>Media Intelligence</t>
   </si>
   <si>
@@ -277,21 +269,6 @@
     <t>Portfolio</t>
   </si>
   <si>
-    <t>Customer engagement</t>
-  </si>
-  <si>
-    <t>Operational improvement</t>
-  </si>
-  <si>
-    <t>Risk mitigation</t>
-  </si>
-  <si>
-    <t>Strategic intelligence</t>
-  </si>
-  <si>
-    <t>Workforce experience</t>
-  </si>
-  <si>
     <t>MyProductDoc</t>
   </si>
   <si>
@@ -463,9 +440,6 @@
     <t>https://productcentral-qa.products.pwc.com/us/en/automation/products/cloud/offering-overview.html</t>
   </si>
   <si>
-    <t>https://productcentral-qa.products.pwc.com/us/en/automation/legal/maintenance---support.html</t>
-  </si>
-  <si>
     <t>https://productcentral-qa.products.pwc.com/us/en/products.html</t>
   </si>
   <si>
@@ -500,13 +474,184 @@
   </si>
   <si>
     <t>legalPublisher</t>
+  </si>
+  <si>
+    <t>erinc.suluk@pwc.com</t>
+  </si>
+  <si>
+    <t>contentPDF</t>
+  </si>
+  <si>
+    <t>PWC-email</t>
+  </si>
+  <si>
+    <t>https://productcentral-stg.products.pwc.com/us/en/homepage.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/products.html</t>
+  </si>
+  <si>
+    <t>https://ums-productcentral.pwc.com/</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/security.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/legal.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/resell-alliances.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/products/bookkeeping-connect/offeringoverview.html</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/</t>
+  </si>
+  <si>
+    <t>https://productcentral.products.pwc.com/us/en/homepage.html</t>
+  </si>
+  <si>
+    <t>One Stop Shop, for all your Product needs</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/privacy-hub.html</t>
+  </si>
+  <si>
+    <t>privacyHub</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/change-navigator</t>
+  </si>
+  <si>
+    <t>Resell Alliances</t>
+  </si>
+  <si>
+    <t>On-Premises Software Terms</t>
+  </si>
+  <si>
+    <t>Resell Data Processing addendum</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/products/cloud/offering-overview.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/listen-platform.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/products/change-navigator/offeringoverview.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/resell-alliances.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/legal/hosted-software-terms.html</t>
+  </si>
+  <si>
+    <t>Customer Engagement</t>
+  </si>
+  <si>
+    <t>Finance Intelligence</t>
+  </si>
+  <si>
+    <t>Operational Improvement</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Strategic Intelligence</t>
+  </si>
+  <si>
+    <t>Workforce Experience</t>
+  </si>
+  <si>
+    <t>Offering Overview for Restricted Client</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/products/change-navigator.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/us/en/security.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/pc/us/en/site/experience-fragment/master.html</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/dam/productcentral/en_us/products/product-2/myproducts/Profit%20Seeker%20-%20Data%20Processing%20Addendum.pdf</t>
+  </si>
+  <si>
+    <t>AnonymousPDF</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/wcm/core/content/sites/createpagewizard.html/content/pc/us/en/automation/my-products</t>
+  </si>
+  <si>
+    <t>Insides Platform</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/privacy-hub.html</t>
+  </si>
+  <si>
+    <t>https://ums-productcentral-qa.pwc.com/ums</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/sites.html/content/pc/us/en/automation/my-products/check-in</t>
+  </si>
+  <si>
+    <t>childCheckinAutomation</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in.html</t>
+  </si>
+  <si>
+    <t>checkinAuthPage</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/child-check-in.html</t>
+  </si>
+  <si>
+    <t>childCheckinAuthor</t>
+  </si>
+  <si>
+    <t>sampleAssetforPublish</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/aem/inbox</t>
+  </si>
+  <si>
+    <t>aemInbox</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/board-central</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/footer.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/master.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/productcentral/us/en/site/experience-fragment</t>
+  </si>
+  <si>
+    <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
+  </si>
+  <si>
+    <t>Board Central</t>
+  </si>
+  <si>
+    <t>Customer Link</t>
+  </si>
+  <si>
+    <t>Entity Ops</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +681,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464646"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -558,12 +710,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,6 +814,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -693,6 +866,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -868,17 +1058,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="2" max="2" width="143.140625" customWidth="1"/>
+    <col min="2" max="2" width="204.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,10 +1081,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,10 +1105,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,15 +1124,15 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,108 +1140,108 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1059,198 +1249,371 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B14" r:id="rId4"/>
-    <hyperlink ref="A2" r:id="rId5"/>
-    <hyperlink ref="B25" r:id="rId6"/>
-    <hyperlink ref="B29" r:id="rId7"/>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B29" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B45" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B46" r:id="rId9" xr:uid="{E83C4312-5898-4CFE-BE75-18877926561F}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{CC0F6E25-A14F-498A-ADBF-C4F5DB19224A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
@@ -1260,272 +1623,296 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1533,11 +1920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,10 +1943,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,15 +1954,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1986,15 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,142 +2002,639 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>158</v>
+      <c r="B16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B25" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B45" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B44" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B43" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="136.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B45" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B43" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B3" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE4F0A-0BD0-4F5D-84BB-7C6797BDE342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E257FAB-63CB-4295-9B07-72DE8770FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
   <si>
     <t>homepageURL</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>Entity Ops</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,6 +1586,11 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E257FAB-63CB-4295-9B07-72DE8770FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920D702-E987-4238-8D55-077D9CFBF0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t>homepageURL</t>
   </si>
@@ -623,18 +623,6 @@
     <t>aemInbox</t>
   </si>
   <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/board-central</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/footer.html</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/master.html</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/productcentral/us/en/site/experience-fragment</t>
-  </si>
-  <si>
     <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
   </si>
   <si>
@@ -648,6 +636,12 @@
   </si>
   <si>
     <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/pc/us/en/site/experience-fragment/footer.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/pc/us/en/site/experience-fragment</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,12 +1476,12 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1519,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1566,7 @@
         <v>198</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,12 +1579,12 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
         <v>179</v>
@@ -1828,7 +1822,7 @@
         <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1912,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920D702-E987-4238-8D55-077D9CFBF0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE4F0A-0BD0-4F5D-84BB-7C6797BDE342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="209">
   <si>
     <t>homepageURL</t>
   </si>
@@ -623,6 +623,18 @@
     <t>aemInbox</t>
   </si>
   <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/board-central</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/footer.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/master.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/productcentral/us/en/site/experience-fragment</t>
+  </si>
+  <si>
     <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
   </si>
   <si>
@@ -633,15 +645,6 @@
   </si>
   <si>
     <t>Entity Ops</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/pc/us/en/site/experience-fragment/footer.html</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/pc/us/en/site/experience-fragment</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,12 +1479,12 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1522,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1569,7 @@
         <v>198</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,11 +1582,6 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1609,7 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1688,7 +1686,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
         <v>179</v>
@@ -1822,7 +1820,7 @@
         <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,7 +1910,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE4F0A-0BD0-4F5D-84BB-7C6797BDE342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B78F608-6879-4A5A-B8A6-3F0BF121BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
   <si>
     <t>homepageURL</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>Entity Ops</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,6 +1586,11 @@
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B78F608-6879-4A5A-B8A6-3F0BF121BA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2168E8-7617-4DE7-8EAC-AA19CA01674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t>homepageURL</t>
   </si>
@@ -623,18 +623,6 @@
     <t>aemInbox</t>
   </si>
   <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/assets.html/content/dam/productcentral/en_us/products/board-central</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/footer.html</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/productcentral/us/en/site/experience-fragment/master.html</t>
-  </si>
-  <si>
-    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/productcentral/us/en/site/experience-fragment</t>
-  </si>
-  <si>
     <t>https://productcentral-qa.products.pwc.com/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
   </si>
   <si>
@@ -648,6 +636,12 @@
   </si>
   <si>
     <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/disclosure-checklist.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/experience-fragments/pc/us/en/site/experience-fragment/footer.html</t>
+  </si>
+  <si>
+    <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/pc/us/en/site/experience-fragment</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,12 +1476,12 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1519,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1566,7 @@
         <v>198</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1585,12 +1579,12 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
         <v>179</v>
@@ -1828,7 +1822,7 @@
         <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1912,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2168E8-7617-4DE7-8EAC-AA19CA01674B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB56DB-E288-4421-AA79-CB8B8CD00072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="209">
   <si>
     <t>homepageURL</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/pc/us/en/site/experience-fragment</t>
+  </si>
+  <si>
+    <t>Master Data Management</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
@@ -1607,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,6 +1916,11 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB56DB-E288-4421-AA79-CB8B8CD00072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEC64D-3153-433E-BCEB-8A2E8CCA5417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="210">
   <si>
     <t>homepageURL</t>
   </si>
@@ -644,7 +644,10 @@
     <t>https://auth-productcentral-qa.products.pwc.com/mnt/overlay/cq/experience-fragments/content/experience-fragments/createpagewizard.html/content/experience-fragments/pc/us/en/site/experience-fragment</t>
   </si>
   <si>
-    <t>Master Data Management</t>
+    <t>https://auth-productcentral-qa.products.pwc.com/editor.html/content/pc/us/en/automation/my-products/check-in/not-top-level.html</t>
+  </si>
+  <si>
+    <t>NonTopLevelPage</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,6 +1591,14 @@
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1610,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,11 +1927,6 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
